--- a/data_pair/yuzhe_data/yuzhe_data.xlsx
+++ b/data_pair/yuzhe_data/yuzhe_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyz/Desktop/ECO_LLM_VIS/data_pair/yuzhe_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75C962-ECEE-414E-90E2-83D3306E1571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED917492-4383-9045-9CD7-774DA2E6FA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D73B7DC8-4747-1445-8455-9DCCE93B5DBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,12 +166,30 @@
     <t>normal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>multiple line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In 2018, Tesla's total revenue was US$19.8 billion, and BYD's total revenue was US$18.5 billion. In 2022, Tesla's total revenue was US$81.4 billion, and BYD's total revenue was US$60.5 billion. From the perspective of total revenue, Tesla and BYD are gradually widening the gap.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
+  </si>
+  <si>
+    <t>[{'Time': 2012, 'Launches': 46, 'Liquidations': 14, 'Active': 271}, {'Time': 2013, 'Launches': 50, 'Liquidations': 18, 'Active': 303}, {'Time': 2014, 'Launches': 76, 'Liquidations': 18, 'Active': 361}, {'Time': 2015, 'Launches': 68, 'Liquidations': 18, 'Active': 411}, {'Time': 2016, 'Launches': 51, 'Liquidations': 14, 'Active': 448}, {'Time': 2017, 'Launches': 63, 'Liquidations': 20, 'Active': 491}, {'Time': 2018, 'Launches': 61, 'Liquidations': 24, 'Active': 528}, {'Time': 2019, 'Launches': 64, 'Liquidations': 19, 'Active': 573}, {'Time': 2020, 'Launches': 65, 'Liquidations': 32, 'Active': 606}, {'Time': 2021, 'Launches': 75, 'Liquidations': 17, 'Active': 664}, {'Time': 2022, 'Launches': 26, 'Liquidations': 21, 'Active': 669}, {'Time': 2023, 'Launches': 5, 'Liquidations': 18, 'Active': 656}]</t>
+  </si>
+  <si>
+    <t>The number of active China-focused hedge funds has slipped for the first time since at least 2012, with only five new funds launched this year as of June. Another 18 funds were liquidated, the data show.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +231,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF8BA5-C638-3648-B5C9-F107197336E9}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -584,6 +611,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" customWidth="1"/>
     <col min="5" max="5" width="48.1640625" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="19.5" customHeight="1">
@@ -740,36 +768,76 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="78" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:11" ht="143" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
+    <row r="10" spans="1:11" ht="274" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data_pair/yuzhe_data/yuzhe_data.xlsx
+++ b/data_pair/yuzhe_data/yuzhe_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyz/Desktop/ECO_LLM_VIS/data_pair/yuzhe_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED917492-4383-9045-9CD7-774DA2E6FA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF1AC3-3E04-4141-9576-1D043FEF5D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D73B7DC8-4747-1445-8455-9DCCE93B5DBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -183,6 +183,17 @@
   <si>
     <t>The number of active China-focused hedge funds has slipped for the first time since at least 2012, with only five new funds launched this year as of June. Another 18 funds were liquidated, the data show.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptrend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla earned $53.8 billion in sales revenue in 2021. This was up from $31.5 billion earned in 2020, with a 70.64% growth in sales during 2021. In 2022, Tesla remains the largest EV manufacturer in terms of revenue and market share, followed by Volkswagen. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Year': 2017, 'Annual Revenue (billions of US $)': 11.7}, {'Year': 2018, 'Annual Revenue (billions of US $)': 21.4}, {'Year': 2019, 'Annual Revenue (billions of US $)': 24.5}, {'Year': 2020, 'Annual Revenue (billions of US $)': 31.5}, {'Year': 2021, 'Annual Revenue (billions of US $)': 53.8}, {'Year': 2022, 'Annual Revenue (billions of US $)': 81.4}]</t>
   </si>
 </sst>
 </file>
@@ -260,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,10 +287,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -602,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF8BA5-C638-3648-B5C9-F107197336E9}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -659,9 +667,9 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
@@ -682,9 +690,9 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="185" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -696,15 +704,15 @@
       <c r="C4" s="4">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="214" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -716,15 +724,15 @@
       <c r="C5" s="4">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="246" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -736,14 +744,14 @@
       <c r="C6" s="4">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
@@ -758,25 +766,25 @@
       <c r="C7" s="4">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="78" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="143" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -788,48 +796,67 @@
       <c r="C9" s="4">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="274" customHeight="1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="133" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11">
